--- a/examples/sources/data/unsolved/to_schedule/2019-03-21.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-21.xlsx
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>43545</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
